--- a/DetailInfo/TTO_PROJECT_DESIGN.xlsx
+++ b/DetailInfo/TTO_PROJECT_DESIGN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1039,17 +1039,8 @@
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,18 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,23 +1112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1157,25 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1190,29 +1139,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1224,6 +1152,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,15 +1194,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2020,7 +2020,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="31750">
-          <a:tailEnd type="arrow"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2216,6 +2217,329 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1447800" y="3076575"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>TTO_Auto_Task</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="2266950"/>
+          <a:ext cx="4114800" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="2428875"/>
+          <a:ext cx="2447925" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TTO_Admin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3076" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200276" y="4000502"/>
+          <a:ext cx="3457574" cy="2024061"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -138"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
           <a:tailEnd type="arrow"/>
@@ -6421,186 +6745,186 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18.75">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6641,147 +6965,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="30">
+      <c r="A11" s="23">
         <v>42239</v>
       </c>
       <c r="B11" t="s">
@@ -6789,7 +7113,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30">
+      <c r="A12" s="23">
         <v>42240</v>
       </c>
       <c r="B12" t="s">
@@ -6797,7 +7121,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30">
+      <c r="A13" s="23">
         <v>42241</v>
       </c>
       <c r="B13" t="s">
@@ -6805,7 +7129,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30">
+      <c r="A14" s="23">
         <v>42242</v>
       </c>
       <c r="B14" t="s">
@@ -6813,7 +7137,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30">
+      <c r="A15" s="23">
         <v>42243</v>
       </c>
       <c r="B15" t="s">
@@ -6821,7 +7145,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30">
+      <c r="A16" s="23">
         <v>42244</v>
       </c>
       <c r="B16" t="s">
@@ -6852,593 +7176,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="64"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="63" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="64"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="64"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="70" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="38"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="38"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="38"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="39" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="38"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="47"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="47"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="72"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="47"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="72"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="53"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="53"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="54" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="47"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="55"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="50" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="57"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="57"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="50" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="57"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="50" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="57"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="50" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="57"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="50" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="57"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="57"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="57"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="50" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="57"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="50" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="57"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="57"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="50" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="57"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="57"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="50" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="57"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="56"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="F15:F28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B24:B26"/>
@@ -7455,11 +7784,6 @@
     <mergeCell ref="F6:F14"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="F15:F28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7469,8 +7793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7491,624 +7815,624 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="69" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8127,10 +8451,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="9" spans="18:18">
-      <c r="R9" s="70"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="27" spans="15:15">
-      <c r="O27" s="70"/>
+      <c r="O27" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8158,397 +8482,397 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="44" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="45" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="45" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="45" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="45" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="45" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="46" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="45" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="43" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="44" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="45" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="46" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="45" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="45" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="45" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="45" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="45" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="45" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="45" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="45" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" spans="3:9">
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="45" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="3:9">
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="45" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:9">
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="I31" s="45" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="3:9">
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="I32" s="73" t="s">
+      <c r="I32" s="45" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="33" spans="5:9">
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="45" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="5:9">
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="46" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8562,7 +8886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>

--- a/DetailInfo/TTO_PROJECT_DESIGN.xlsx
+++ b/DetailInfo/TTO_PROJECT_DESIGN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="Simple Stroy" sheetId="5" r:id="rId5"/>
     <sheet name="Model" sheetId="6" r:id="rId6"/>
     <sheet name="Object" sheetId="7" r:id="rId7"/>
-    <sheet name="Core Flow" sheetId="9" r:id="rId8"/>
+    <sheet name="Admin" sheetId="10" r:id="rId8"/>
+    <sheet name="Vendor" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="222">
   <si>
     <t>Project Name:</t>
   </si>
@@ -741,12 +742,15 @@
   <si>
     <t>UserProfile</t>
   </si>
+  <si>
+    <t>Base</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +794,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1037,7 +1049,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1182,9 +1194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,6 +1254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1259,16 +1274,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1279,7 +1294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3324225" y="3086100"/>
+          <a:off x="2638425" y="3057525"/>
           <a:ext cx="1695450" cy="942975"/>
         </a:xfrm>
         <a:custGeom>
@@ -1839,7 +1854,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
             <a:t>TTO_MAIN</a:t>
           </a:r>
         </a:p>
@@ -2092,14 +2107,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
@@ -2111,12 +2126,14 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3921918" y="4288631"/>
-          <a:ext cx="1976438" cy="1495425"/>
+        <a:xfrm>
+          <a:off x="3514728" y="3990975"/>
+          <a:ext cx="2143122" cy="2033588"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -222"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
           <a:tailEnd type="arrow"/>
@@ -2241,16 +2258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2261,7 +2278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1447800" y="3076575"/>
+          <a:off x="762000" y="3048000"/>
           <a:ext cx="1695450" cy="942975"/>
         </a:xfrm>
         <a:custGeom>
@@ -2400,16 +2417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2418,8 +2435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="2266950"/>
-          <a:ext cx="4114800" cy="2038350"/>
+          <a:off x="409575" y="1085850"/>
+          <a:ext cx="4114800" cy="3190875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2455,16 +2472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2473,7 +2490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="2428875"/>
+          <a:off x="619125" y="1295400"/>
           <a:ext cx="2447925" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2503,7 +2520,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>TTO_Admin</a:t>
           </a:r>
         </a:p>
@@ -2513,10 +2530,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -2533,12 +2550,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200276" y="4000502"/>
-          <a:ext cx="3457574" cy="2024061"/>
+          <a:off x="1504950" y="4010025"/>
+          <a:ext cx="4152900" cy="2014538"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -138"/>
+            <a:gd name="adj1" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
@@ -2560,6 +2577,3383 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2600325" y="1657350"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>TTO_WS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Elbow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4295776" y="2124075"/>
+          <a:ext cx="1571625" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="419100"/>
+          <a:ext cx="8696325" cy="8096250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="495300"/>
+          <a:ext cx="866775" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>TTO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆柱形 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12249150" y="5353050"/>
+          <a:ext cx="1057275" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Oracle DB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11934825" y="3895725"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>JPA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>(Hibernate)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="2495550"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Jersey</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13506450" y="2486025"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Quartz</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11172825" y="1152525"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Service</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12915900" y="1143000"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Controller</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163174" y="990600"/>
+          <a:ext cx="5229225" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434228</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10116110" y="1080807"/>
+          <a:ext cx="1011331" cy="779369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Suppored</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>By</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103654</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="圆柱形 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14626478" y="5349688"/>
+          <a:ext cx="1048310" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>ActiveMQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>JMS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16297275" y="3638550"/>
+          <a:ext cx="1695450" cy="942975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>ActiveMQ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15744825" y="1438275"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>slf4j</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16868775" y="1438275"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>jackson</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15735300" y="2057400"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>common</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>fileupload</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16897350" y="2066925"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>common</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>dbcp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="981075"/>
+          <a:ext cx="2705100" cy="1933576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544800" y="1019175"/>
+          <a:ext cx="866775" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Tool</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15497175" y="3009900"/>
+          <a:ext cx="2705100" cy="1933576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15554324" y="3048000"/>
+          <a:ext cx="1352551" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>JMS Support</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10496549" y="7419975"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>ExtJS 4.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11620499" y="7419975"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Bootstrap3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12763499" y="7410450"/>
+          <a:ext cx="952500" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>JQuery</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163176" y="6962775"/>
+          <a:ext cx="8067674" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296524" y="7000875"/>
+          <a:ext cx="1733551" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Front end</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144124" y="5124450"/>
+          <a:ext cx="8067675" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201274" y="5162550"/>
+          <a:ext cx="1733551" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Source</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圆角矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12236824" y="2700618"/>
+          <a:ext cx="943535" cy="485775"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 46032 w 1695450"/>
+            <a:gd name="T1" fmla="*/ 46032 h 942975"/>
+            <a:gd name="T2" fmla="*/ 1649417 w 1695450"/>
+            <a:gd name="T3" fmla="*/ 896942 h 942975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157164" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538284" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538283" y="0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695449" y="157165"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1695450" y="785809"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="1538285" y="942974"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="157165" y="942975"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="0" y="785810"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="1695450" h="942975">
+              <a:moveTo>
+                <a:pt x="0" y="157165"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="157165"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="70365"/>
+                <a:pt x="70365" y="0"/>
+                <a:pt x="157164" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1538284" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1538283" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1625083" y="0"/>
+                <a:pt x="1695449" y="70365"/>
+                <a:pt x="1695449" y="157165"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="785809"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1695450" y="872608"/>
+                <a:pt x="1625084" y="942973"/>
+                <a:pt x="1538285" y="942974"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="157165" y="942975"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="70365" y="942975"/>
+                <a:pt x="0" y="872609"/>
+                <a:pt x="0" y="785810"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3891,6 +7285,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="31750"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5837,176 +9232,112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Connector 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1933575" y="1095375"/>
-          <a:ext cx="1057275" cy="571500"/>
+        <a:xfrm flipH="1">
+          <a:off x="7305675" y="2838450"/>
+          <a:ext cx="2562225" cy="1257300"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="31750"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User switch Location</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Process 2"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="1104900"/>
-          <a:ext cx="1057275" cy="571500"/>
+          <a:off x="9505950" y="3076575"/>
+          <a:ext cx="428625" cy="238125"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User search shop</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="1114425"/>
-          <a:ext cx="1057275" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User enter shop</a:t>
+            <a:t>One</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6016,436 +9347,189 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flowchart: Process 4"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="89" name="TextBox 88"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="1104900"/>
-          <a:ext cx="1057275" cy="571500"/>
+          <a:off x="6972300" y="3609975"/>
+          <a:ext cx="619125" cy="238125"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User switch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> product</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Flowchart: Process 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8429625" y="1114425"/>
-          <a:ext cx="1057275" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User confirm</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>order</a:t>
+            <a:t>Many</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Process 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="admin.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9925050" y="1028699"/>
-          <a:ext cx="1057275" cy="771525"/>
+          <a:off x="923925" y="752475"/>
+          <a:ext cx="8915400" cy="3943350"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>System</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>  create order and send JMS Message</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213753</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flowchart: Process 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="vender.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11449050" y="1028700"/>
-          <a:ext cx="1057275" cy="771525"/>
+          <a:off x="466725" y="381000"/>
+          <a:ext cx="8891028" cy="5010150"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>vendor accept</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> confirm</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164369</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flowchart: Process 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="vender1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915900" y="1028700"/>
-          <a:ext cx="1057275" cy="771525"/>
+          <a:off x="426225" y="5579250"/>
+          <a:ext cx="10101344" cy="4869675"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User confirm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flowchart: Process 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14325600" y="1038225"/>
-          <a:ext cx="1057275" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Order close</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flowchart: Process 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458575" y="2124075"/>
-          <a:ext cx="1057275" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>vendor  don't accept</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Order close</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6739,7 +9823,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6949,7 +10033,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7162,7 +10246,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7196,7 +10280,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -7207,10 +10291,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="40"/>
-      <c r="F2" s="54"/>
+      <c r="F2" s="74" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
@@ -7221,10 +10307,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="40"/>
-      <c r="F3" s="54"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="6"/>
       <c r="C4" s="39" t="s">
         <v>95</v>
@@ -7233,10 +10319,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="F4" s="54"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="6"/>
       <c r="C5" s="39" t="s">
         <v>96</v>
@@ -7245,13 +10331,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="40"/>
-      <c r="F5" s="54"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7261,13 +10347,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
@@ -7275,11 +10361,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="63"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="28" t="s">
         <v>50</v>
       </c>
@@ -7287,11 +10373,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="29"/>
-      <c r="F8" s="63"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="68"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -7301,11 +10387,11 @@
         <v>3</v>
       </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="28" t="s">
         <v>53</v>
       </c>
@@ -7313,11 +10399,11 @@
         <v>3</v>
       </c>
       <c r="E10" s="29"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="68"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="28" t="s">
         <v>54</v>
       </c>
@@ -7325,11 +10411,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="63"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="68"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -7339,11 +10425,11 @@
         <v>3</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="28" t="s">
         <v>57</v>
       </c>
@@ -7351,10 +10437,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="68"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
@@ -7365,10 +10451,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="63"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="71" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -7381,12 +10467,12 @@
         <v>61</v>
       </c>
       <c r="E15" s="29"/>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="34" t="s">
         <v>63</v>
       </c>
@@ -7397,10 +10483,10 @@
         <v>61</v>
       </c>
       <c r="E16" s="29"/>
-      <c r="F16" s="63"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="53" t="s">
         <v>64</v>
       </c>
@@ -7411,11 +10497,11 @@
         <v>61</v>
       </c>
       <c r="E17" s="29"/>
-      <c r="F17" s="63"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="33" t="s">
         <v>52</v>
       </c>
@@ -7423,11 +10509,11 @@
         <v>61</v>
       </c>
       <c r="E18" s="29"/>
-      <c r="F18" s="63"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="64" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -7437,11 +10523,11 @@
         <v>61</v>
       </c>
       <c r="E19" s="29"/>
-      <c r="F19" s="63"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="72"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="33" t="s">
         <v>68</v>
       </c>
@@ -7449,11 +10535,11 @@
         <v>61</v>
       </c>
       <c r="E20" s="29"/>
-      <c r="F20" s="63"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="72"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -7463,11 +10549,11 @@
         <v>61</v>
       </c>
       <c r="E21" s="29"/>
-      <c r="F21" s="63"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="33" t="s">
         <v>71</v>
       </c>
@@ -7475,11 +10561,11 @@
         <v>61</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="63"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="72"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="33" t="s">
         <v>72</v>
       </c>
@@ -7487,10 +10573,10 @@
         <v>61</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="63"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="47" t="s">
         <v>73</v>
       </c>
@@ -7501,10 +10587,10 @@
         <v>61</v>
       </c>
       <c r="E24" s="29"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="47"/>
       <c r="C25" s="35" t="s">
         <v>75</v>
@@ -7513,10 +10599,10 @@
         <v>61</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="47"/>
       <c r="C26" s="1" t="s">
         <v>76</v>
@@ -7525,11 +10611,11 @@
         <v>61</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="72"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -7539,11 +10625,11 @@
         <v>61</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="63"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="60"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="33" t="s">
         <v>77</v>
       </c>
@@ -7551,10 +10637,10 @@
         <v>61</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="64"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="34" t="s">
@@ -7567,13 +10653,13 @@
         <v>78</v>
       </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="61"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="64" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -7583,11 +10669,11 @@
         <v>78</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="63"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="61"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="33" t="s">
         <v>79</v>
       </c>
@@ -7595,11 +10681,11 @@
         <v>78</v>
       </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="61"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="33" t="s">
         <v>80</v>
       </c>
@@ -7607,11 +10693,11 @@
         <v>78</v>
       </c>
       <c r="E32" s="29"/>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="61"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="33" t="s">
         <v>81</v>
       </c>
@@ -7619,11 +10705,11 @@
         <v>78</v>
       </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="61"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="33" t="s">
         <v>82</v>
       </c>
@@ -7631,11 +10717,11 @@
         <v>78</v>
       </c>
       <c r="E34" s="29"/>
-      <c r="F34" s="63"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="61"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="64" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -7645,11 +10731,11 @@
         <v>78</v>
       </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="33" t="s">
         <v>85</v>
       </c>
@@ -7657,11 +10743,11 @@
         <v>78</v>
       </c>
       <c r="E36" s="29"/>
-      <c r="F36" s="63"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="61"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="33" t="s">
         <v>86</v>
       </c>
@@ -7669,11 +10755,11 @@
         <v>78</v>
       </c>
       <c r="E37" s="29"/>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="61"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
@@ -7681,11 +10767,11 @@
         <v>78</v>
       </c>
       <c r="E38" s="29"/>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="61"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -7695,11 +10781,11 @@
         <v>78</v>
       </c>
       <c r="E39" s="29"/>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="61"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="33" t="s">
         <v>72</v>
       </c>
@@ -7707,11 +10793,11 @@
         <v>78</v>
       </c>
       <c r="E40" s="29"/>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="61"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="60"/>
+      <c r="B41" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -7721,11 +10807,11 @@
         <v>78</v>
       </c>
       <c r="E41" s="29"/>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="61"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="33" t="s">
         <v>91</v>
       </c>
@@ -7733,10 +10819,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="29"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
@@ -7747,11 +10833,11 @@
         <v>78</v>
       </c>
       <c r="E43" s="29"/>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="62"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="36" t="s">
         <v>59</v>
       </c>
@@ -7759,7 +10845,7 @@
         <v>78</v>
       </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="64"/>
+      <c r="F44" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7786,6 +10872,7 @@
     <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7793,8 +10880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7808,8 +10895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8445,7 +11532,7 @@
   <dimension ref="O9:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8467,7 +11554,7 @@
   <dimension ref="C2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8887,7 +11974,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DetailInfo/TTO_PROJECT_DESIGN.xlsx
+++ b/DetailInfo/TTO_PROJECT_DESIGN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Suky</t>
-  </si>
-  <si>
-    <t>BA Dev</t>
   </si>
   <si>
     <t>Ace</t>
@@ -744,6 +741,9 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA Dev </t>
   </si>
 </sst>
 </file>
@@ -1194,6 +1194,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,25 +1239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1239,25 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5961,42 +5961,40 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="¦¬¦Ñ-˜¦¦-+"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="order.png"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="3733800"/>
-          <a:ext cx="7572375" cy="4676775"/>
+          <a:off x="514350" y="5334630"/>
+          <a:ext cx="12544425" cy="4838070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -9822,11 +9820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="49" t="s">
@@ -9885,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9894,25 +9897,25 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
@@ -9930,11 +9933,11 @@
     </row>
     <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -9946,7 +9949,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -9958,7 +9961,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -9988,10 +9991,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -10050,36 +10053,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -10090,10 +10093,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10104,13 +10107,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -10120,13 +10123,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -10136,13 +10139,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -10152,29 +10155,29 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -10182,10 +10185,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10193,7 +10196,7 @@
         <v>42239</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10201,7 +10204,7 @@
         <v>42240</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10209,7 +10212,7 @@
         <v>42241</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10217,7 +10220,7 @@
         <v>42242</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10225,7 +10228,7 @@
         <v>42243</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -10233,7 +10236,7 @@
         <v>42244</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -10246,7 +10249,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10261,599 +10264,594 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="54" t="s">
-        <v>92</v>
+      <c r="A2" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="40"/>
-      <c r="F2" s="74" t="s">
-        <v>221</v>
+      <c r="F2" s="63" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="40"/>
-      <c r="F3" s="75"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="6"/>
       <c r="C4" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="F4" s="75"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="56"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="6"/>
       <c r="C5" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="40"/>
-      <c r="F5" s="73"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="28" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="29"/>
-      <c r="F7" s="62"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="29"/>
-      <c r="F8" s="62"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="62"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="67"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="29"/>
-      <c r="F10" s="62"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="67"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="62"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="67"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="62"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="71" t="s">
-        <v>14</v>
+      <c r="A15" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="54"/>
+      <c r="B16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="71"/>
-      <c r="B16" s="34" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="54"/>
+      <c r="B17" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="71"/>
-      <c r="B17" s="53" t="s">
+      <c r="C17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="54"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="58"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="54"/>
+      <c r="B19" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="71"/>
-      <c r="B19" s="64" t="s">
+      <c r="C19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="54"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="71"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="33" t="s">
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="54"/>
+      <c r="B21" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="71"/>
-      <c r="B21" s="64" t="s">
+      <c r="C21" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="54"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="71"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="33" t="s">
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="54"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="71"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="33" t="s">
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="55"/>
+      <c r="B24" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="72"/>
-      <c r="B24" s="47" t="s">
+      <c r="C24" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>74</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="29"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="72"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="47"/>
       <c r="C25" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="72"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="47"/>
       <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="54"/>
+      <c r="B27" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="56"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="71"/>
-      <c r="B27" s="57" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="69"/>
+      <c r="B30" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="69"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="69"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="58"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="69"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="69"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="69"/>
+      <c r="B35" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="69"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="58"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="69"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="69"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="58"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="69"/>
+      <c r="B39" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="69"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="69"/>
+      <c r="B41" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="69"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="69"/>
+      <c r="B43" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="59"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="33" t="s">
+      <c r="D44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="60"/>
-      <c r="B30" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="60"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="62"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="60"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="60"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="60"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="60"/>
-      <c r="B35" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="62"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="60"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="62"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="60"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="62"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="60"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="62"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="60"/>
-      <c r="B39" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="62"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="60"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="62"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="60"/>
-      <c r="B41" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="62"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="60"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="62"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="60"/>
-      <c r="B43" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="62"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="61"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="63"/>
+      <c r="F44" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="F15:F28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B24:B26"/>
@@ -10870,6 +10868,11 @@
     <mergeCell ref="F6:F14"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="F15:F28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10881,7 +10884,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10895,15 +10898,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10915,7 +10918,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -10928,7 +10931,7 @@
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10940,7 +10943,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -10952,7 +10955,7 @@
     <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10964,7 +10967,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -10976,7 +10979,7 @@
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10988,7 +10991,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11000,7 +11003,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11013,7 +11016,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -11025,7 +11028,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -11036,7 +11039,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -11048,7 +11051,7 @@
     <row r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -11061,7 +11064,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -11073,7 +11076,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -11085,7 +11088,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -11097,7 +11100,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11108,7 +11111,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -11120,7 +11123,7 @@
     <row r="10" spans="1:18">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11132,7 +11135,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -11144,7 +11147,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11157,7 +11160,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -11178,7 +11181,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -11200,7 +11203,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -11222,7 +11225,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -11244,7 +11247,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -11255,7 +11258,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -11268,7 +11271,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -11280,7 +11283,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -11293,7 +11296,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -11304,7 +11307,7 @@
     <row r="18" spans="1:18">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -11316,7 +11319,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -11328,7 +11331,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -11350,7 +11353,7 @@
     <row r="20" spans="1:18">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -11372,7 +11375,7 @@
     <row r="21" spans="1:18">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -11394,7 +11397,7 @@
     <row r="22" spans="1:18">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -11416,7 +11419,7 @@
     <row r="23" spans="1:18">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -11438,7 +11441,7 @@
     <row r="24" spans="1:18">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -11461,7 +11464,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -11482,7 +11485,7 @@
     <row r="26" spans="1:18">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -11570,397 +11573,397 @@
   <sheetData>
     <row r="2" spans="3:9">
       <c r="C2" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="E10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="45" t="s">
         <v>142</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="E15" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="E20" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="E26" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="E27" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="E28" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="E29" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="E30" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="E31" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="E32" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="I35" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -11974,7 +11977,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11988,7 +11991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
